--- a/number_reps_per_treat_ZOI_assays.xlsx
+++ b/number_reps_per_treat_ZOI_assays.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_429CBDC28F79A8D366075C52F37BD272AA4ED716" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95153C58-6C51-4F1A-A762-8B5BAEC18F58}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_76B9BFD88F79A8D366075C52F37BD272AA4338A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F60DC0CB-7DFB-48CB-9922-642ADC578D7F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="16">
   <si>
     <t>Temperature</t>
   </si>
@@ -81,12 +68,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Water_control</t>
   </si>
 </sst>
 </file>
@@ -439,13 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -478,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -512,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -563,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -580,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -614,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -648,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -682,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -716,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -784,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -818,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -835,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -903,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -937,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1005,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1056,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1141,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1192,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1311,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1430,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1532,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1618,40 +1606,6 @@
       </c>
       <c r="E69">
         <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
